--- a/data/MapInfos.xlsx
+++ b/data/MapInfos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>テンプレートイベント</t>
   </si>
@@ -29,6 +29,81 @@
     <t>動画テストマップ</t>
   </si>
   <si>
+    <t>研究所</t>
+  </si>
+  <si>
+    <t>研究棟2F</t>
+  </si>
+  <si>
+    <t>研究所中央</t>
+  </si>
+  <si>
+    <t>バルコニー研究所侵入</t>
+  </si>
+  <si>
+    <t>没</t>
+  </si>
+  <si>
+    <t>生態実験室（イベ）</t>
+  </si>
+  <si>
+    <t>研究棟1F</t>
+  </si>
+  <si>
+    <t>イベント用（研究所）</t>
+  </si>
+  <si>
+    <t>研究棟1F（イベ）</t>
+  </si>
+  <si>
+    <t>研究所通路</t>
+  </si>
+  <si>
+    <t>研究棟2F（イベ）</t>
+  </si>
+  <si>
+    <t>トラの間</t>
+  </si>
+  <si>
+    <t>ブタの間</t>
+  </si>
+  <si>
+    <t>ヘビの間</t>
+  </si>
+  <si>
+    <t>カマキリの間</t>
+  </si>
+  <si>
+    <t>ミニマム部屋</t>
+  </si>
+  <si>
+    <t>研究所最後の通路</t>
+  </si>
+  <si>
+    <t>VSベルチョコR2</t>
+  </si>
+  <si>
+    <t>生態実験室（チョコレ戦）</t>
+  </si>
+  <si>
+    <t>VSベルチョコ</t>
+  </si>
+  <si>
+    <t>生態実験室</t>
+  </si>
+  <si>
+    <t>外エンディング用</t>
+  </si>
+  <si>
+    <t>ループ森</t>
+  </si>
+  <si>
+    <t>地下階段</t>
+  </si>
+  <si>
+    <t>日記確認部屋</t>
+  </si>
+  <si>
     <t>戦闘テスト</t>
   </si>
   <si>
@@ -42,9 +117,6 @@
   </si>
   <si>
     <t>汎用イベント/テスト</t>
-  </si>
-  <si>
-    <t>アルラウネバトル</t>
   </si>
   <si>
     <t>テストマップ3</t>
@@ -485,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,224 +565,473 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
